--- a/Game/Assets/Character_Data/Character_Data.xlsx
+++ b/Game/Assets/Character_Data/Character_Data.xlsx
@@ -5,11 +5,11 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CG1801\Desktop\Hover\Hoverboat\Game\Assets\Character_Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\sisim\Documents\Hoverboard\Hoverboat\Game\Assets\Character_Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7560"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20496" windowHeight="7560"/>
   </bookViews>
   <sheets>
     <sheet name="CharaData" sheetId="1" r:id="rId1"/>
@@ -399,15 +399,15 @@
   <dimension ref="B4:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -418,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>4</v>
       </c>
@@ -432,7 +432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>5</v>
       </c>
@@ -446,21 +446,21 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>6</v>
       </c>
       <c r="C7">
-        <v>1.01</v>
+        <v>1.02</v>
       </c>
       <c r="D7">
-        <v>0.995</v>
+        <v>0.99870000000000003</v>
       </c>
       <c r="E7">
         <v>1.2</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.4">
+    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>3</v>
       </c>

--- a/Game/Assets/Character_Data/Character_Data.xlsx
+++ b/Game/Assets/Character_Data/Character_Data.xlsx
@@ -47,25 +47,22 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>end</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デフォルト</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>加速</t>
+    <t>デフォルトキャラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>加速特化キャラ</t>
     <rPh sb="0" eb="2">
       <t>カソク</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>摩擦</t>
-    <rPh sb="0" eb="2">
-      <t>マサツ</t>
-    </rPh>
+    <t>ブレーキ性能が高いキャラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>end</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -399,12 +396,16 @@
   <dimension ref="B4:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="2" max="2" width="13" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="24.09765625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.296875" customWidth="1"/>
+    <col min="4" max="4" width="7.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="24.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="2:5" x14ac:dyDescent="0.45">
@@ -420,7 +421,7 @@
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C5">
         <v>1</v>
@@ -434,7 +435,7 @@
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C6">
         <v>1.04</v>
@@ -448,7 +449,7 @@
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="C7">
         <v>1.02</v>
@@ -462,7 +463,7 @@
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Game/Assets/Character_Data/Character_Data.xlsx
+++ b/Game/Assets/Character_Data/Character_Data.xlsx
@@ -396,7 +396,7 @@
   <dimension ref="B4:E8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -405,6 +405,7 @@
     <col min="3" max="3" width="9.296875" customWidth="1"/>
     <col min="4" max="4" width="7.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="59.69921875" customWidth="1"/>
     <col min="7" max="7" width="24.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>

--- a/Game/Assets/Character_Data/Character_Data.xlsx
+++ b/Game/Assets/Character_Data/Character_Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>加速力</t>
     <rPh sb="0" eb="2">
@@ -63,6 +63,22 @@
   </si>
   <si>
     <t>end</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>fbxパス</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assets/modelData/hover/rennga.cmo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assets/modelData/hover/wood.cmo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assets/modelData/hover/Hope.cmo</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -393,10 +409,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:E8"/>
+  <dimension ref="B4:F8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="F21" sqref="F21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -409,7 +425,7 @@
     <col min="7" max="7" width="24.19921875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -419,8 +435,11 @@
       <c r="E4" t="s">
         <v>2</v>
       </c>
+      <c r="F4" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -433,8 +452,11 @@
       <c r="E5">
         <v>1</v>
       </c>
+      <c r="F5" t="s">
+        <v>10</v>
+      </c>
     </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -447,8 +469,11 @@
       <c r="E6">
         <v>0.8</v>
       </c>
+      <c r="F6" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -461,8 +486,11 @@
       <c r="E7">
         <v>1.2</v>
       </c>
+      <c r="F7" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>6</v>
       </c>

--- a/Game/Assets/Character_Data/Character_Data.xlsx
+++ b/Game/Assets/Character_Data/Character_Data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>加速力</t>
     <rPh sb="0" eb="2">
@@ -79,6 +79,22 @@
   </si>
   <si>
     <t>Assets/modelData/hover/Hope.cmo</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スペキュラマップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assets/modelData/hover/metal_specMap.dds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assets/modelData/hover/rennga_specMap.dds</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Assets/modelData/hover/wood_specMap.dds</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -409,10 +425,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B4:F8"/>
+  <dimension ref="B4:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
@@ -421,11 +437,11 @@
     <col min="3" max="3" width="9.296875" customWidth="1"/>
     <col min="4" max="4" width="7.3984375" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="59.69921875" customWidth="1"/>
-    <col min="7" max="7" width="24.19921875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="42.796875" customWidth="1"/>
+    <col min="7" max="7" width="57.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="4" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="4" spans="2:7" x14ac:dyDescent="0.45">
       <c r="C4" t="s">
         <v>0</v>
       </c>
@@ -438,8 +454,11 @@
       <c r="F4" t="s">
         <v>7</v>
       </c>
+      <c r="G4" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="5" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="5" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B5" t="s">
         <v>3</v>
       </c>
@@ -455,8 +474,11 @@
       <c r="F5" t="s">
         <v>10</v>
       </c>
+      <c r="G5" t="s">
+        <v>12</v>
+      </c>
     </row>
-    <row r="6" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="6" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B6" t="s">
         <v>4</v>
       </c>
@@ -472,8 +494,11 @@
       <c r="F6" t="s">
         <v>8</v>
       </c>
+      <c r="G6" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="7" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="7" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B7" t="s">
         <v>5</v>
       </c>
@@ -489,8 +514,11 @@
       <c r="F7" t="s">
         <v>9</v>
       </c>
+      <c r="G7" t="s">
+        <v>14</v>
+      </c>
     </row>
-    <row r="8" spans="2:6" x14ac:dyDescent="0.45">
+    <row r="8" spans="2:7" x14ac:dyDescent="0.45">
       <c r="B8" t="s">
         <v>6</v>
       </c>
